--- a/isus/data/Raw Data_시립대 국토개발정책 사후관리_성철수정-분석용v1.3.xlsx
+++ b/isus/data/Raw Data_시립대 국토개발정책 사후관리_성철수정-분석용v1.3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gumin JUNG\isus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uos\Documents\GitHub\jupyter-notebook\isus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6007B9E6-F5C2-492A-8339-CBA91B1B01E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="만족도_raw data" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
     <definedName name="중점">[2]Sheet2!$G$4:$G$6</definedName>
     <definedName name="지역">[3]Sheet2!$A$2:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -860,7 +859,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1216,8 +1215,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2111,30 +2110,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.4375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.4375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="10.4375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
     <col min="9" max="19" width="9" style="5" customWidth="1"/>
     <col min="20" max="20" width="9" style="5"/>
     <col min="21" max="21" width="10" style="5" customWidth="1"/>
     <col min="22" max="47" width="9" style="5"/>
-    <col min="48" max="49" width="4.5625" style="5" hidden="1" customWidth="1"/>
+    <col min="48" max="49" width="4.625" style="5" hidden="1" customWidth="1"/>
     <col min="50" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="13.5" thickBot="1">
+    <row r="1" spans="1:49" ht="12.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,9 +2548,9 @@
       </c>
       <c r="AW3" s="45"/>
     </row>
-    <row r="4" spans="1:49" s="4" customFormat="1" ht="105">
+    <row r="4" spans="1:49" s="4" customFormat="1" ht="96">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
@@ -4777,7 +4776,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:49" s="4" customFormat="1" ht="39.4">
+    <row r="20" spans="1:49" s="4" customFormat="1" ht="36">
       <c r="C20" s="4">
         <v>1</v>
       </c>
@@ -4827,12 +4826,12 @@
       <c r="G23" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="AV3:AW17" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="AV3:AW17">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:AU17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:AU17">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -4842,7 +4841,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'H:\0120_서울시립대 사후관리 연수\12. 설문평가\[설문분석파일.xlsx](참고자료)수원국목록'!#REF!</xm:f>
           </x14:formula1>
@@ -4855,18 +4854,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6875" style="28" customWidth="1"/>
-    <col min="3" max="51" width="4.6875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="28" customWidth="1"/>
+    <col min="3" max="51" width="4.75" style="27" customWidth="1"/>
     <col min="52" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
@@ -4890,7 +4889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="29" customFormat="1" ht="13.15">
+    <row r="2" spans="1:52" s="29" customFormat="1" ht="11.25">
       <c r="B2" s="30"/>
       <c r="C2" s="29" t="str">
         <f>[5]강의정보_출력!C7</f>
